--- a/files/DIMENSAO.xlsx
+++ b/files/DIMENSAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\treinamento\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\BI-DW-with-Pentaho\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528E107-793B-4CE7-9C6B-D67A25E9CFC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0219532E-F223-4A9C-8973-11B058928796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{77FE4DFA-C449-48DE-9648-46C8DF06C3B9}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{77FE4DFA-C449-48DE-9648-46C8DF06C3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -440,12 +440,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -464,10 +464,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -489,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>

--- a/files/DIMENSAO.xlsx
+++ b/files/DIMENSAO.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\BI-DW-with-Pentaho\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0219532E-F223-4A9C-8973-11B058928796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259CE435-94E5-49B5-8DA5-52786D5C7959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{77FE4DFA-C449-48DE-9648-46C8DF06C3B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{77FE4DFA-C449-48DE-9648-46C8DF06C3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>CODIGO</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>5288954</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
